--- a/biology/Botanique/Rungia/Rungia.xlsx
+++ b/biology/Botanique/Rungia/Rungia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rungia Nees. est un genre de plantes appartenant à la famille des Acanthaceae. 
 </t>
@@ -511,11 +523,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (24 juillet 2017) :
 Rungia pectinata (L.) Nees.
-Selon Catalogue of Life                                   (24 juillet 2017)[3] :
+Selon Catalogue of Life                                   (24 juillet 2017) :
 Rungia angustifolia Bremek.
 Rungia axilliflora H.S. Lo
 Rungia beddomei C. B. Cl.
@@ -565,16 +579,16 @@
 Rungia tonkinensis Benoist
 Rungia tristichantha Bremek.
 Rungia yunnanensis H. S. Lo
-Selon GRIN            (24 juillet 2017)[4] :
+Selon GRIN            (24 juillet 2017) :
 Rungia klossii S. Moore
 Rungia pectinata (L.) Nees
 Rungia repens (L.) Nees
-Selon NCBI  (24 juillet 2017)[5] :
+Selon NCBI  (24 juillet 2017) :
 Rungia chinensis
 Rungia klossii
 Rungia mina
 Rungia pectinata
-Selon The Plant List            (24 juillet 2017)[6] :
+Selon The Plant List            (24 juillet 2017) :
 Rungia axilliflora H.S. Lo
 Rungia bisaccata D. Fang &amp; H.S. Lo
 Rungia buettneri Lindau
@@ -598,7 +612,7 @@
 Rungia stolonifera C.B. Clarke
 Rungia taiwanensis T. Yamaz.
 Rungia yunnanensis H.S. Lo
-Selon Tropicos                                           (24 juillet 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juillet 2017) (Attention liste brute contenant possiblement des synonymes) :
 Rungia apiculata Bedd.
 Rungia arnottiana Wight
 Rungia axilliflora H.S. Lo
